--- a/Data/Osteomyelitis_Underlying_Race_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Underlying_Race_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121D7CC-6A2D-834B-92A2-7979E103F38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97735ABA-4F3A-8F49-A027-7D1A56258313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="760" windowWidth="27640" windowHeight="16800" activeTab="5" xr2:uid="{046101B4-CB62-E649-A2CA-DE2EDA87F503}"/>
+    <workbookView xWindow="14540" yWindow="1360" windowWidth="27640" windowHeight="16800" activeTab="3" xr2:uid="{046101B4-CB62-E649-A2CA-DE2EDA87F503}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="114">
   <si>
     <t>Notes</t>
   </si>
@@ -6332,7 +6332,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6356,7 +6356,7 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C2">
         <v>0.33</v>
@@ -6370,7 +6370,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="C3">
         <v>0.35</v>
@@ -6384,7 +6384,7 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.44</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C4">
         <v>0.42</v>
@@ -6398,7 +6398,7 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5">
         <v>0.41</v>
@@ -6412,7 +6412,7 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
         <v>0.45</v>
@@ -6426,7 +6426,7 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="C7">
         <v>0.48</v>
@@ -6440,7 +6440,7 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
         <v>0.45</v>
@@ -6454,7 +6454,7 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="C9">
         <v>0.43</v>
@@ -6468,7 +6468,7 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="C10">
         <v>0.44</v>
@@ -6482,7 +6482,7 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C11">
         <v>0.43</v>
@@ -6496,7 +6496,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
         <v>0.44</v>
@@ -6510,7 +6510,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.46</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C13">
         <v>0.43</v>
@@ -6524,7 +6524,7 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="C14">
         <v>0.47</v>
@@ -6538,7 +6538,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -6552,7 +6552,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
         <v>0.48</v>
@@ -6566,7 +6566,7 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0.54</v>
+        <v>0.69</v>
       </c>
       <c r="C17">
         <v>0.51</v>
@@ -6580,7 +6580,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="C18">
         <v>0.56999999999999995</v>
@@ -6594,7 +6594,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="C19">
         <v>0.59</v>
@@ -6608,7 +6608,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="C20">
         <v>0.64</v>
@@ -6622,7 +6622,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="C21">
         <v>0.67</v>
@@ -6636,7 +6636,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0.75</v>
@@ -6650,7 +6650,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
         <v>0.79</v>
@@ -6664,7 +6664,7 @@
         <v>2021</v>
       </c>
       <c r="B24">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="C24">
         <v>1.01</v>
@@ -6678,7 +6678,7 @@
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="C25">
         <v>1.01</v>
@@ -6692,7 +6692,7 @@
         <v>2023</v>
       </c>
       <c r="B26">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="C26">
         <v>1.04</v>
@@ -6711,7 +6711,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6735,7 +6735,7 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="C2">
         <v>0.65</v>
@@ -6749,7 +6749,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.03</v>
+        <v>1.32</v>
       </c>
       <c r="C3">
         <v>0.9</v>
@@ -6763,7 +6763,7 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="C4">
         <v>0.93</v>
@@ -6777,7 +6777,7 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="C5">
         <v>0.88</v>
@@ -6791,7 +6791,7 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>1.1100000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="C6">
         <v>0.98</v>
@@ -6805,7 +6805,7 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>1.1299999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="C7">
         <v>0.99</v>
@@ -6819,7 +6819,7 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="C8">
         <v>0.93</v>
@@ -6833,7 +6833,7 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="C9">
         <v>0.88</v>
@@ -6847,7 +6847,7 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>1.1200000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="C10">
         <v>0.99</v>
@@ -6861,7 +6861,7 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="C11">
         <v>0.81</v>
@@ -6875,7 +6875,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="C12">
         <v>0.73</v>
@@ -6889,7 +6889,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="C13">
         <v>0.94</v>
@@ -6903,7 +6903,7 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="C14">
         <v>0.9</v>
@@ -6917,7 +6917,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.88</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C15">
         <v>0.78</v>
@@ -6931,7 +6931,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.91</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C16">
         <v>0.8</v>
@@ -6945,7 +6945,7 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
         <v>0.72</v>
@@ -6959,7 +6959,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="C18">
         <v>0.95</v>
@@ -6973,7 +6973,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>1.1499999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="C19">
         <v>1.03</v>
@@ -6987,7 +6987,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="C20">
         <v>1.06</v>
@@ -7001,7 +7001,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="C21">
         <v>1.18</v>
@@ -7015,7 +7015,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="C22">
         <v>1.28</v>
@@ -7029,7 +7029,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="C23">
         <v>1.56</v>
@@ -7043,7 +7043,7 @@
         <v>2021</v>
       </c>
       <c r="B24">
-        <v>1.79</v>
+        <v>2.27</v>
       </c>
       <c r="C24">
         <v>1.65</v>
@@ -7057,7 +7057,7 @@
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>1.95</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C25">
         <v>1.81</v>
@@ -7071,7 +7071,7 @@
         <v>2023</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="C26">
         <v>1.85</v>
@@ -7089,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49342842-273E-E844-97FB-88D2D45DE423}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7113,8 +7113,8 @@
       <c r="A2" s="1">
         <v>1999</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.3</v>
+      <c r="B2">
+        <v>0.39</v>
       </c>
       <c r="C2" s="1">
         <v>0.21</v>
@@ -7127,8 +7127,8 @@
       <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.34</v>
+      <c r="B3">
+        <v>0.43</v>
       </c>
       <c r="C3" s="1">
         <v>0.25</v>
@@ -7141,8 +7141,8 @@
       <c r="A4" s="1">
         <v>2001</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.39</v>
+      <c r="B4">
+        <v>0.49</v>
       </c>
       <c r="C4" s="1">
         <v>0.28999999999999998</v>
@@ -7155,8 +7155,8 @@
       <c r="A5" s="1">
         <v>2002</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.5</v>
+      <c r="B5">
+        <v>0.63</v>
       </c>
       <c r="C5" s="1">
         <v>0.38</v>
@@ -7169,8 +7169,8 @@
       <c r="A6" s="1">
         <v>2003</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.39</v>
+      <c r="B6">
+        <v>0.49</v>
       </c>
       <c r="C6" s="1">
         <v>0.28999999999999998</v>
@@ -7183,8 +7183,8 @@
       <c r="A7" s="1">
         <v>2004</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.48</v>
+      <c r="B7">
+        <v>0.6</v>
       </c>
       <c r="C7" s="1">
         <v>0.37</v>
@@ -7197,8 +7197,8 @@
       <c r="A8" s="1">
         <v>2005</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.51</v>
+      <c r="B8">
+        <v>0.64</v>
       </c>
       <c r="C8" s="1">
         <v>0.4</v>
@@ -7211,8 +7211,8 @@
       <c r="A9" s="1">
         <v>2006</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.4</v>
+      <c r="B9">
+        <v>0.51</v>
       </c>
       <c r="C9" s="1">
         <v>0.31</v>
@@ -7225,8 +7225,8 @@
       <c r="A10" s="1">
         <v>2007</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.48</v>
+      <c r="B10">
+        <v>0.61</v>
       </c>
       <c r="C10" s="1">
         <v>0.38</v>
@@ -7239,8 +7239,8 @@
       <c r="A11" s="1">
         <v>2008</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.4</v>
+      <c r="B11">
+        <v>0.51</v>
       </c>
       <c r="C11" s="1">
         <v>0.32</v>
@@ -7253,8 +7253,8 @@
       <c r="A12" s="1">
         <v>2009</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.45</v>
+      <c r="B12">
+        <v>0.56999999999999995</v>
       </c>
       <c r="C12" s="1">
         <v>0.36</v>
@@ -7267,8 +7267,8 @@
       <c r="A13" s="1">
         <v>2010</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.45</v>
+      <c r="B13">
+        <v>0.56999999999999995</v>
       </c>
       <c r="C13" s="1">
         <v>0.36</v>
@@ -7281,8 +7281,8 @@
       <c r="A14" s="1">
         <v>2011</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.42</v>
+      <c r="B14">
+        <v>0.54</v>
       </c>
       <c r="C14" s="1">
         <v>0.34</v>
@@ -7295,8 +7295,8 @@
       <c r="A15" s="1">
         <v>2012</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.42</v>
+      <c r="B15">
+        <v>0.54</v>
       </c>
       <c r="C15" s="1">
         <v>0.34</v>
@@ -7309,8 +7309,8 @@
       <c r="A16" s="1">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.42</v>
+      <c r="B16">
+        <v>0.54</v>
       </c>
       <c r="C16" s="1">
         <v>0.35</v>
@@ -7323,8 +7323,8 @@
       <c r="A17" s="1">
         <v>2014</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.42</v>
+      <c r="B17">
+        <v>0.54</v>
       </c>
       <c r="C17" s="1">
         <v>0.35</v>
@@ -7337,8 +7337,8 @@
       <c r="A18" s="1">
         <v>2015</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.47</v>
+      <c r="B18">
+        <v>0.6</v>
       </c>
       <c r="C18" s="1">
         <v>0.4</v>
@@ -7351,8 +7351,8 @@
       <c r="A19" s="1">
         <v>2016</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.5</v>
+      <c r="B19">
+        <v>0.64</v>
       </c>
       <c r="C19" s="1">
         <v>0.42</v>
@@ -7365,8 +7365,8 @@
       <c r="A20" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.49</v>
+      <c r="B20">
+        <v>0.62</v>
       </c>
       <c r="C20" s="1">
         <v>0.41</v>
@@ -7379,8 +7379,8 @@
       <c r="A21" s="1">
         <v>2018</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.5</v>
+      <c r="B21">
+        <v>0.63</v>
       </c>
       <c r="C21" s="1">
         <v>0.42</v>
@@ -7393,8 +7393,8 @@
       <c r="A22" s="1">
         <v>2019</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.46</v>
+      <c r="B22">
+        <v>0.57999999999999996</v>
       </c>
       <c r="C22" s="1">
         <v>0.39</v>
@@ -7407,8 +7407,8 @@
       <c r="A23" s="1">
         <v>2020</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.64</v>
+      <c r="B23">
+        <v>0.81</v>
       </c>
       <c r="C23" s="1">
         <v>0.55000000000000004</v>
@@ -7422,7 +7422,7 @@
         <v>2021</v>
       </c>
       <c r="B24">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="C24">
         <v>0.57999999999999996</v>
@@ -7436,7 +7436,7 @@
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="C25">
         <v>0.69</v>
@@ -7450,7 +7450,7 @@
         <v>2023</v>
       </c>
       <c r="B26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="C26">
         <v>0.64</v>
@@ -7469,7 +7469,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7576,6 +7576,9 @@
       <c r="A8" s="1">
         <v>2005</v>
       </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -7610,7 +7613,7 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="C11">
         <v>0.17</v>
@@ -7624,7 +7627,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C12">
         <v>0.13</v>
@@ -7638,7 +7641,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C13">
         <v>0.11</v>
@@ -7666,7 +7669,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C15">
         <v>0.11</v>
@@ -7680,7 +7683,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C16">
         <v>0.15</v>
@@ -7694,7 +7697,7 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="C17">
         <v>0.14000000000000001</v>
@@ -7708,7 +7711,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="C18">
         <v>0.14000000000000001</v>
@@ -7722,7 +7725,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -7736,7 +7739,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="C20">
         <v>0.23</v>
@@ -7750,7 +7753,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="C21">
         <v>0.21</v>
@@ -7764,7 +7767,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="C22">
         <v>0.23</v>
@@ -7778,7 +7781,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="C23">
         <v>0.19</v>
@@ -7791,8 +7794,8 @@
       <c r="A24" s="1">
         <v>2021</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.32</v>
+      <c r="B24">
+        <v>0.4</v>
       </c>
       <c r="C24" s="1">
         <v>0.24</v>
@@ -7805,8 +7808,8 @@
       <c r="A25" s="1">
         <v>2022</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.33</v>
+      <c r="B25">
+        <v>0.42</v>
       </c>
       <c r="C25" s="1">
         <v>0.25</v>
@@ -7819,8 +7822,8 @@
       <c r="A26" s="1">
         <v>2023</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.28999999999999998</v>
+      <c r="B26">
+        <v>0.37</v>
       </c>
       <c r="C26" s="1">
         <v>0.22</v>
@@ -7838,8 +7841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061A456-B954-9342-9757-279D4CE9621D}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7876,6 +7879,9 @@
       <c r="A3" s="1">
         <v>2000</v>
       </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -7895,6 +7901,9 @@
       <c r="A5" s="1">
         <v>2002</v>
       </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -7914,15 +7923,24 @@
       <c r="A7" s="1">
         <v>2004</v>
       </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -8061,8 +8079,8 @@
       <c r="A16" s="1">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>1.1599999999999999</v>
+      <c r="B16">
+        <v>1.48</v>
       </c>
       <c r="C16" s="1">
         <v>0.72</v>
@@ -8083,8 +8101,8 @@
       <c r="A17" s="1">
         <v>2014</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.99</v>
+      <c r="B17">
+        <v>1.26</v>
       </c>
       <c r="C17" s="1">
         <v>0.61</v>
@@ -8149,8 +8167,8 @@
       <c r="A20" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.05</v>
+      <c r="B20">
+        <v>1.34</v>
       </c>
       <c r="C20" s="1">
         <v>0.67</v>
@@ -8171,8 +8189,8 @@
       <c r="A21" s="1">
         <v>2018</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.29</v>
+      <c r="B21">
+        <v>1.65</v>
       </c>
       <c r="C21" s="1">
         <v>0.89</v>
@@ -8193,8 +8211,8 @@
       <c r="A22" s="1">
         <v>2019</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.1599999999999999</v>
+      <c r="B22">
+        <v>1.48</v>
       </c>
       <c r="C22" s="1">
         <v>0.78</v>
@@ -8215,8 +8233,8 @@
       <c r="A23" s="1">
         <v>2020</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.32</v>
+      <c r="B23">
+        <v>1.69</v>
       </c>
       <c r="C23" s="1">
         <v>0.91</v>
@@ -8237,8 +8255,8 @@
       <c r="A24" s="1">
         <v>2021</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.91</v>
+      <c r="B24">
+        <v>2.4300000000000002</v>
       </c>
       <c r="C24" s="1">
         <v>1.38</v>
@@ -8259,8 +8277,8 @@
       <c r="A25" s="1">
         <v>2022</v>
       </c>
-      <c r="B25" s="1">
-        <v>2.04</v>
+      <c r="B25">
+        <v>2.6</v>
       </c>
       <c r="C25" s="1">
         <v>1.52</v>
@@ -8281,8 +8299,8 @@
       <c r="A26" s="1">
         <v>2023</v>
       </c>
-      <c r="B26" s="1">
-        <v>1.83</v>
+      <c r="B26">
+        <v>2.33</v>
       </c>
       <c r="C26" s="1">
         <v>1.32</v>
